--- a/biology/Botanique/Richardia_brasiliensis/Richardia_brasiliensis.xlsx
+++ b/biology/Botanique/Richardia_brasiliensis/Richardia_brasiliensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richardia brasiliensis est une espèce de plantes dicotylédones de la famille des Rubiaceae, sous-famille des Rubioideae, originaire d'Amérique du Sud.
-C'est une espèce qui s'est naturalisée dans diverses régions tropicales, notamment à Hawaï, en Indonésie, au Japon et en Thaïlande, devenant parfois une mauvaise herbe envahissante[2]. C'est en particulier une mauvaise herbe des plantations d'agrumes en Floride[3].
-Au Brésil, cette plante est utilisée en médecine traditionnelle comme anti-émétique et contre le diabète[4].
+C'est une espèce qui s'est naturalisée dans diverses régions tropicales, notamment à Hawaï, en Indonésie, au Japon et en Thaïlande, devenant parfois une mauvaise herbe envahissante. C'est en particulier une mauvaise herbe des plantations d'agrumes en Floride.
+Au Brésil, cette plante est utilisée en médecine traditionnelle comme anti-émétique et contre le diabète.
 </t>
         </is>
       </c>
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (26 février 2022)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (26 février 2022) :
 Richardia adscendens (DC.) Steud.
 Richardia emetica (Mart.) Schult.
 Richardia rosea (A.St.-Hil.) Schult.
